--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110888.4299304383</v>
+        <v>-113369.3497558976</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834739</v>
+        <v>10721426.73834738</v>
       </c>
     </row>
     <row r="8">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>119.8011832203879</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>40.71072521252447</v>
       </c>
       <c r="E11" t="n">
         <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>384.0015790663271</v>
@@ -1388,7 +1388,7 @@
         <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579958</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524938</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
         <v>224.0750253717756</v>
@@ -1436,7 +1436,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,22 +1528,22 @@
         <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115015</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719019</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.75870499835595</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>8.794954996812212</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
         <v>259.2916916184865</v>
@@ -1591,7 +1591,7 @@
         <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6645067649684</v>
@@ -1610,13 +1610,13 @@
         <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>61.6757720975696</v>
       </c>
       <c r="E14" t="n">
         <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>384.0015790663271</v>
@@ -1625,7 +1625,7 @@
         <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579958</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104947</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>18.86496877806553</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115015</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719019</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>88.44202534652054</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271172</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292096</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>165.7691548612972</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
         <v>259.2916916184865</v>
@@ -1825,13 +1825,13 @@
         <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
         <v>291.3776085652885</v>
@@ -1856,7 +1856,7 @@
         <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>3.974324134331198</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816014</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.07891872681609</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
         <v>253.8569752644159</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F19" t="n">
-        <v>133.9254590121754</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G19" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860176</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411907</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,7 +2056,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948569</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.1016056607172</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
         <v>291.3776085652885</v>
@@ -2090,10 +2090,10 @@
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>336.9550866703232</v>
       </c>
       <c r="H20" t="n">
         <v>220.7124811816014</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245684</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
         <v>177.099888753183</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F22" t="n">
-        <v>133.9254590121758</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G22" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860176</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411906</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>208.0533602654128</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245684</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
         <v>253.8569752644159</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247628</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721222</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G25" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860176</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411907</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,7 +2530,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7162491948569</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>214.2140663782808</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.2977551524149</v>
@@ -2561,7 +2561,7 @@
         <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231188</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958319</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,22 +2716,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797653</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043386</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572814</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124545</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145469</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2779,7 +2779,7 @@
         <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2792,19 +2792,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,16 +3323,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>134.2912433677306</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>205.4124289181745</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3560,16 +3560,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>239.4866237999591</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>163.1068713883836</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,16 +3797,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383236</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C43" t="n">
-        <v>69.5621008705229</v>
+        <v>111.7690391349167</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>144.3761107440552</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600708</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C46" t="n">
-        <v>69.5621008705228</v>
+        <v>111.7690391349167</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010732</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846414</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482621</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092319</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H46" t="n">
-        <v>89.2772329506103</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333686</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1823.749336508873</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C11" t="n">
-        <v>1481.978886828185</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828185</v>
+        <v>1098.185049298301</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="F11" t="n">
         <v>739.5888639597802</v>
@@ -5033,22 +5033,22 @@
         <v>351.7084810645002</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299107</v>
+        <v>81.31694793299118</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3146.820141253117</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U11" t="n">
-        <v>2920.481731786677</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>2616.61091170283</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2291.03432369244</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X11" t="n">
-        <v>1944.760632691083</v>
+        <v>1861.662031477903</v>
       </c>
       <c r="Y11" t="n">
-        <v>1944.760632691083</v>
+        <v>1498.714766761815</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>831.1355997018113</v>
+        <v>451.9018305756483</v>
       </c>
       <c r="C13" t="n">
-        <v>689.391484033628</v>
+        <v>310.1577149074651</v>
       </c>
       <c r="D13" t="n">
-        <v>566.4669118810159</v>
+        <v>187.2331427548529</v>
       </c>
       <c r="E13" t="n">
-        <v>445.7458855583464</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0480053201596</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>185.537235954602</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218343</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058534</v>
+        <v>2111.452912090498</v>
       </c>
       <c r="S13" t="n">
-        <v>2140.502109058534</v>
+        <v>1946.959095177048</v>
       </c>
       <c r="T13" t="n">
-        <v>2131.618316132461</v>
+        <v>1752.384547006297</v>
       </c>
       <c r="U13" t="n">
-        <v>1869.707516517828</v>
+        <v>1490.473747391665</v>
       </c>
       <c r="V13" t="n">
-        <v>1642.215095571665</v>
+        <v>1262.981326445501</v>
       </c>
       <c r="W13" t="n">
-        <v>1379.989992794428</v>
+        <v>1000.756223668265</v>
       </c>
       <c r="X13" t="n">
-        <v>1179.192509156134</v>
+        <v>799.9587400299708</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5919972723274</v>
+        <v>606.3582281461644</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2154.8229678559</v>
+        <v>1502.254258673503</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.052518175212</v>
+        <v>1160.483808992815</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.978886828185</v>
+        <v>1098.1850492983</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>739.5888639597797</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597802</v>
+        <v>739.5888639597797</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645003</v>
+        <v>351.7084810644999</v>
       </c>
       <c r="H14" t="n">
-        <v>81.3169479329911</v>
+        <v>81.31694793299104</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
@@ -5279,25 +5279,25 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5306,22 @@
         <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.50722039599</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>3223.451696377742</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V14" t="n">
-        <v>3223.451696377742</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W14" t="n">
-        <v>3223.451696377742</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X14" t="n">
-        <v>2877.178005376386</v>
+        <v>1861.662031477901</v>
       </c>
       <c r="Y14" t="n">
-        <v>2514.230740660298</v>
+        <v>1861.662031477901</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2692096237422</v>
+        <v>418.3126375609356</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5250939555589</v>
+        <v>276.5685218927524</v>
       </c>
       <c r="D16" t="n">
-        <v>636.6005218029468</v>
+        <v>276.5685218927524</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802772</v>
+        <v>155.847495570083</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420905</v>
+        <v>155.847495570083</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765331</v>
+        <v>155.847495570083</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541145</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
@@ -5464,22 +5464,22 @@
         <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1745.926311393348</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.015511778715</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1256.523090832552</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>1256.523090832552</v>
+        <v>967.1670306535519</v>
       </c>
       <c r="X16" t="n">
-        <v>1055.725607194258</v>
+        <v>766.3695470152581</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.725607194258</v>
+        <v>572.7690351314517</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666651</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934037</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535083</v>
+        <v>940.9592424104336</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446359</v>
+        <v>629.8126900199863</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628253</v>
+        <v>293.4684854381758</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5513,16 +5513,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3314.414994612387</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3183.078947204406</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3004.190170686039</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>2747.768983550266</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W17" t="n">
-        <v>2469.642028487949</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2170.817970434666</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>1855.320338666651</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235549</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034449</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989062</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243101</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
         <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604107</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817307</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459976</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666651</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535083</v>
+        <v>940.9592424104339</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446359</v>
+        <v>629.8126900199861</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628255</v>
+        <v>629.8126900199861</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156193</v>
@@ -5750,22 +5750,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296686</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3146.717045090805</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V20" t="n">
-        <v>2890.295857955031</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W20" t="n">
-        <v>2612.168902892714</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2313.344844839431</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>1997.847213071416</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235554</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034454</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989067</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1109578243106</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G22" t="n">
         <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604106</v>
+        <v>89.1960934060411</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371952</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817311</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.158537745998</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
         <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349356</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
-        <v>636.750404953125</v>
+        <v>636.7504049531244</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248242</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248242</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815079</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713544</v>
+        <v>596.0762594713542</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391688</v>
+        <v>1917.058658516338</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42119445047</v>
+        <v>2463.83747557512</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454458</v>
+        <v>2966.809946454457</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811636</v>
+        <v>3361.584312811634</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124121</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859013</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451032</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714064</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902794</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290282</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.7845989235727</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504577</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830758</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094446</v>
+        <v>92.38504642094328</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248242</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130998</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934469</v>
+        <v>405.3192232934467</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061123</v>
+        <v>772.0173836061119</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800938</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277041</v>
+        <v>2414.277623277039</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.91918092364</v>
+        <v>2571.919180923639</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516154</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009634</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693940687491</v>
+        <v>2249.69394068749</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821905</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590164</v>
+        <v>1786.473985590163</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861962</v>
+        <v>1532.236628861961</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656428</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775274</v>
+        <v>575.9874173775275</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574175</v>
+        <v>481.6929346574176</v>
       </c>
       <c r="D25" t="n">
         <v>406.2179954528788</v>
@@ -6142,19 +6142,19 @@
         <v>96.06173179634007</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248242</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
-        <v>118.500387269418</v>
+        <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182944</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667905</v>
+        <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663394</v>
+        <v>983.2044142663393</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478792</v>
+        <v>1934.160186478791</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444117</v>
+        <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1801.927245478739</v>
       </c>
       <c r="T25" t="n">
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453177</v>
+        <v>1440.341163589503</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455087</v>
+        <v>1260.298375591413</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259236</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357032</v>
+        <v>829.1450609357033</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999701</v>
+        <v>682.9941819999702</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.251070565914</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486247</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>3051.647429808958</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094413</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603401</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834456</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676534</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803187</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982154</v>
+        <v>786.3326864982162</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350171</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308442</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.97243057225</v>
@@ -6412,10 +6412,10 @@
         <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386254</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,22 +6461,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3051.647429808958</v>
       </c>
       <c r="P29" t="n">
         <v>3750.042416521973</v>
@@ -6494,7 +6494,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,10 +6503,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6622,13 +6622,13 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,22 +6640,22 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689498</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6701,25 +6701,25 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>875.9322461484392</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1326.966459396848</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>3080.016953737236</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6737,13 +6737,13 @@
         <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833284</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805546</v>
       </c>
     </row>
     <row r="33">
@@ -6777,13 +6777,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6856,13 +6856,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6920,55 +6920,55 @@
         <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746128</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,34 +7032,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>599.6022649647792</v>
+        <v>500.9308303909356</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368724</v>
+        <v>430.6660820368721</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245366</v>
+        <v>379.2208771983798</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1791.646827515028</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1668.551646658397</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>1478.120214357884</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V37" t="n">
-        <v>1223.435726151997</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W37" t="n">
-        <v>934.0185561150363</v>
+        <v>835.3471215411923</v>
       </c>
       <c r="X37" t="n">
-        <v>804.7004397908623</v>
+        <v>706.0290052170185</v>
       </c>
       <c r="Y37" t="n">
-        <v>682.5792952211756</v>
+        <v>583.9078606473319</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
         <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307326</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7187,37 +7187,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,31 +7269,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
         <v>1109.759191501176</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.9308303909359</v>
+        <v>599.602264964779</v>
       </c>
       <c r="C40" t="n">
-        <v>430.6660820368723</v>
+        <v>430.6660820368721</v>
       </c>
       <c r="D40" t="n">
-        <v>379.22087719838</v>
+        <v>379.2208771983798</v>
       </c>
       <c r="E40" t="n">
-        <v>329.9792181898302</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F40" t="n">
         <v>281.7607052657632</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1182.105910636354</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
-        <v>1026.09285700431</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W40" t="n">
-        <v>835.3471215411929</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X40" t="n">
-        <v>706.0290052170189</v>
+        <v>847.333710764997</v>
       </c>
       <c r="Y40" t="n">
-        <v>583.9078606473322</v>
+        <v>682.5792952211752</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
         <v>894.139768046497</v>
@@ -7400,61 +7400,61 @@
         <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,31 +7506,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
         <v>1109.759191501176</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.9279421464339</v>
+        <v>444.8926667912273</v>
       </c>
       <c r="C43" t="n">
-        <v>626.6631937923704</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D43" t="n">
-        <v>575.217988953878</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E43" t="n">
-        <v>525.9763299453283</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1691.629635548995</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1568.534454692365</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1378.103022391852</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V43" t="n">
-        <v>1222.089968759808</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W43" t="n">
-        <v>1031.344233296691</v>
+        <v>877.9803925153276</v>
       </c>
       <c r="X43" t="n">
-        <v>902.026116972517</v>
+        <v>649.9908416173103</v>
       </c>
       <c r="Y43" t="n">
-        <v>779.9049724028303</v>
+        <v>527.8696970476236</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,19 +7646,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7676,7 +7676,7 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515854</v>
@@ -7691,7 +7691,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7716,28 +7716,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>444.8926667912278</v>
+        <v>444.8926667912273</v>
       </c>
       <c r="C46" t="n">
-        <v>374.6279184371644</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D46" t="n">
-        <v>323.1827135986721</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E46" t="n">
-        <v>273.9410545901225</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F46" t="n">
-        <v>225.7225416660556</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>156.6911396146181</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
@@ -7804,16 +7804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758176</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W46" t="n">
-        <v>976.6518270891715</v>
+        <v>779.3089579414841</v>
       </c>
       <c r="X46" t="n">
-        <v>748.6622761911542</v>
+        <v>649.9908416173103</v>
       </c>
       <c r="Y46" t="n">
-        <v>626.5411316214676</v>
+        <v>527.8696970476236</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430636</v>
+        <v>157.2353108430635</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729015</v>
+        <v>184.4039433729013</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389613</v>
+        <v>191.494890938961</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333077</v>
+        <v>181.0856325333075</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830251</v>
+        <v>179.3553748830248</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554384</v>
+        <v>182.8301554383997</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586593</v>
+        <v>190.8908035586591</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.010383626613</v>
+        <v>192.0103836266128</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875977</v>
+        <v>112.6562001875976</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372538</v>
+        <v>113.6031223372537</v>
       </c>
       <c r="L9" t="n">
-        <v>105.962971867228</v>
+        <v>105.9629718672279</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253601</v>
+        <v>104.1013981253599</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677734</v>
+        <v>92.30246558677712</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359743</v>
+        <v>106.8829608359741</v>
       </c>
       <c r="P9" t="n">
-        <v>105.311348779833</v>
+        <v>105.3113487798328</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615462</v>
+        <v>120.821278461546</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564662</v>
+        <v>116.1755252564661</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085231</v>
+        <v>119.199607408523</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140782</v>
+        <v>108.4284123140781</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530928</v>
+        <v>120.6694600530927</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662708</v>
+        <v>122.5080856662707</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.8144253784349</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>339.8144253784354</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.161737372967764e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544126</v>
+        <v>306.6874953089268</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,19 +10115,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>274.8351763665421</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>306.6874953089259</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>105.7385611944699</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>277.2206841544134</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>236.0125118559663</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>287.0521698210321</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104947</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271172</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292096</v>
+        <v>33.25330108456495</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>183.8338476922306</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>266.0871229359869</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524938</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.2100565937101</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>29.39284298067382</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>26.85964782774559</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494646</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>333.0521183134032</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>24.21355985564072</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.7369527970444</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.07135577741128486</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245677</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>961820.7684067386</v>
+        <v>961820.7684067388</v>
       </c>
     </row>
     <row r="7">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>368674.3524226673</v>
+        <v>368674.3524226672</v>
       </c>
       <c r="C2" t="n">
         <v>368674.3524226673</v>
       </c>
       <c r="D2" t="n">
-        <v>368684.4014126761</v>
+        <v>368684.401412676</v>
       </c>
       <c r="E2" t="n">
-        <v>328293.0004072386</v>
+        <v>328293.0004072388</v>
       </c>
       <c r="F2" t="n">
         <v>328293.0004072387</v>
       </c>
       <c r="G2" t="n">
-        <v>357538.8695609417</v>
+        <v>357538.8695609418</v>
       </c>
       <c r="H2" t="n">
         <v>357538.8695609418</v>
       </c>
       <c r="I2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="J2" t="n">
-        <v>369468.796438928</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="K2" t="n">
         <v>369468.7964389276</v>
@@ -26344,16 +26344,16 @@
         <v>369468.7964389279</v>
       </c>
       <c r="M2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="O2" t="n">
+        <v>369468.7964389277</v>
+      </c>
+      <c r="P2" t="n">
         <v>369468.7964389276</v>
-      </c>
-      <c r="P2" t="n">
-        <v>369468.7964389277</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552161</v>
+        <v>59764.55367552195</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163633</v>
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487412</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983358</v>
+        <v>22821.46782983366</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179674</v>
+        <v>25409.43302179701</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487412</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927244</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>439568.916991388</v>
+        <v>439568.9169913879</v>
       </c>
       <c r="E4" t="n">
-        <v>41244.04987367432</v>
+        <v>41244.04987367436</v>
       </c>
       <c r="F4" t="n">
-        <v>41244.04987367432</v>
+        <v>41244.04987367436</v>
       </c>
       <c r="G4" t="n">
-        <v>78272.21023511661</v>
+        <v>78272.2102351166</v>
       </c>
       <c r="H4" t="n">
-        <v>78272.21023511658</v>
+        <v>78272.21023511662</v>
       </c>
       <c r="I4" t="n">
         <v>93189.85962057469</v>
       </c>
       <c r="J4" t="n">
-        <v>93063.75099226071</v>
+        <v>93063.75099226084</v>
       </c>
       <c r="K4" t="n">
-        <v>93063.7509922607</v>
+        <v>93063.75099226082</v>
       </c>
       <c r="L4" t="n">
-        <v>93063.75099226067</v>
+        <v>93063.75099226076</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="O4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="P4" t="n">
         <v>93403.78684820636</v>
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186633</v>
+        <v>35148.90543186634</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26482,34 +26482,34 @@
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184213</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480609</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="O5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="P5" t="n">
         <v>82518.59730624985</v>
-      </c>
-      <c r="O5" t="n">
-        <v>82518.59730624985</v>
-      </c>
-      <c r="P5" t="n">
-        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128103.9786794425</v>
+        <v>-128108.3922573107</v>
       </c>
       <c r="C6" t="n">
-        <v>-128103.9786794425</v>
+        <v>-128108.3922573106</v>
       </c>
       <c r="D6" t="n">
-        <v>-165797.9746860998</v>
+        <v>-165802.332436246</v>
       </c>
       <c r="E6" t="n">
-        <v>-878759.5119948953</v>
+        <v>-878988.266417293</v>
       </c>
       <c r="F6" t="n">
-        <v>210479.460168738</v>
+        <v>210250.7057463397</v>
       </c>
       <c r="G6" t="n">
-        <v>161167.9069057361</v>
+        <v>161101.6295341919</v>
       </c>
       <c r="H6" t="n">
-        <v>198748.0162006101</v>
+        <v>198681.738829066</v>
       </c>
       <c r="I6" t="n">
-        <v>167720.9406866774</v>
+        <v>167720.9406866771</v>
       </c>
       <c r="J6" t="n">
-        <v>161617.6707500645</v>
+        <v>161617.6707500636</v>
       </c>
       <c r="K6" t="n">
-        <v>187027.1037718608</v>
+        <v>187027.1037718607</v>
       </c>
       <c r="L6" t="n">
         <v>149446.994476987</v>
       </c>
       <c r="M6" t="n">
-        <v>-8621.687708252823</v>
+        <v>-8621.68770825291</v>
       </c>
       <c r="N6" t="n">
-        <v>193546.4122844716</v>
+        <v>193546.4122844712</v>
       </c>
       <c r="O6" t="n">
         <v>193546.4122844715</v>
       </c>
       <c r="P6" t="n">
-        <v>193546.4122844715</v>
+        <v>193546.4122844714</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790504</v>
+        <v>69.78465283790544</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26802,16 +26802,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810303</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26820,13 +26820,13 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>50.7095836095124</v>
+        <v>50.70958360951244</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790504</v>
+        <v>69.78465283790544</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755393</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.8204798787375</v>
+        <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758383</v>
+        <v>97.11452592758485</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434006</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104729</v>
+        <v>199.6603204104728</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780178</v>
+        <v>132.2465643780177</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036574</v>
+        <v>202.6272343036573</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672117</v>
+        <v>84.22861846672113</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987536</v>
+        <v>90.8382912698753</v>
       </c>
       <c r="S9" t="n">
         <v>168.8950767192291</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406286</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241798</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519102</v>
+        <v>84.46220888519096</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990621</v>
+        <v>7.649035050990538</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317072</v>
+        <v>75.62456067317066</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437879</v>
+        <v>171.6351144437878</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
-        <v>227.407904398219</v>
+        <v>227.4079043982189</v>
       </c>
       <c r="U10" t="n">
         <v>286.3121652922773</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F19" t="n">
-        <v>11.49558901075588</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F22" t="n">
-        <v>11.49558901075542</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075636</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U25" t="n">
-        <v>11.49558901075596</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075636</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859068</v>
+        <v>46.97513661859159</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859265</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29937,7 +29937,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859273</v>
       </c>
       <c r="N34" t="n">
         <v>46.97513661859255</v>
@@ -29949,7 +29949,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
         <v>46.97513661859255</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>55.47778196371132</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>46.7252144056535</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U40" t="n">
-        <v>46.72521440565373</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371124</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810494</v>
+        <v>55.47778196371112</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>45.39291458738671</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810504</v>
+        <v>55.47778196371112</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H46" t="n">
-        <v>55.47778196371048</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413266</v>
+        <v>0.2805413179413282</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366612</v>
+        <v>2.873093772366628</v>
       </c>
       <c r="I8" t="n">
-        <v>10.815569159933</v>
+        <v>10.81556915993307</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362269</v>
+        <v>23.81059368362283</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207905</v>
+        <v>35.68590767207925</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102593</v>
+        <v>44.27152403102619</v>
       </c>
       <c r="M8" t="n">
-        <v>49.260600693965</v>
+        <v>49.26060069396528</v>
       </c>
       <c r="N8" t="n">
-        <v>50.0576887135658</v>
+        <v>50.05768871356608</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328673</v>
+        <v>47.268055983287</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661022</v>
+        <v>40.34219219661045</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783645</v>
+        <v>30.29530624783662</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313187</v>
+        <v>17.62255356313197</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282587986</v>
+        <v>6.392835282588022</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288158</v>
+        <v>1.228069619288165</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530612</v>
+        <v>0.02244330543530625</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796448</v>
+        <v>0.1501028381796457</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840254</v>
+        <v>1.449677410840262</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693912</v>
+        <v>5.168014384693941</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906899</v>
+        <v>14.18142647906907</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710519</v>
+        <v>24.23831663710533</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264613</v>
+        <v>32.59140791264631</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665824</v>
+        <v>38.03263579665846</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655595</v>
+        <v>39.03924649655618</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847014</v>
+        <v>35.71328360847034</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449726</v>
+        <v>28.66305863449743</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447536</v>
+        <v>19.16049562447547</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767776</v>
+        <v>9.319542882767829</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608752</v>
+        <v>2.788094384608768</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890067</v>
+        <v>0.6050197731890101</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345058</v>
+        <v>0.009875186722345114</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486812</v>
+        <v>0.1258411772486819</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811003</v>
+        <v>1.118842466811009</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078524</v>
+        <v>3.784387403078545</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481761</v>
+        <v>8.896971231481812</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489223</v>
+        <v>14.62045677489231</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477212</v>
+        <v>18.70915102477223</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908191</v>
+        <v>19.72617653908202</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115502</v>
+        <v>19.25713215115513</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839874997</v>
+        <v>17.78707839875007</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287686</v>
+        <v>15.21991838287694</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852366</v>
+        <v>10.53748257852372</v>
       </c>
       <c r="R10" t="n">
-        <v>5.65827693338161</v>
+        <v>5.658276933381642</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233835</v>
+        <v>2.193068516233847</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625469</v>
+        <v>0.53768503006255</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564437</v>
+        <v>0.006864064213564476</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019259</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
         <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
         <v>371.7770927546665</v>
@@ -35586,7 +35586,7 @@
         <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019259</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
         <v>346.6775187573245</v>
@@ -35823,7 +35823,7 @@
         <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>878.7355412086614</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>847.8674262666545</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737845</v>
+        <v>705.4494815282984</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165887</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887888</v>
+        <v>366.7325087887897</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>827.1370117794536</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>705.4494815282975</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>442.9298477498703</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>785.2736850426326</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
